--- a/data/summary/summary.xlsx
+++ b/data/summary/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17518B-E082-DF4D-80AB-68F060800F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5DFDA0-CD7F-0F48-ABE9-85385AC4B131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20140" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27080" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="265">
   <si>
     <t>파일명</t>
   </si>
@@ -49,6 +49,9 @@
     <t>표준편차(슬라이딩)</t>
   </si>
   <si>
+    <t>표준편차(정규화)</t>
+  </si>
+  <si>
     <t>연_중국인구.xlsx</t>
   </si>
   <si>
@@ -734,6 +737,84 @@
   </si>
   <si>
     <t>8.812138795030918e-17</t>
+  </si>
+  <si>
+    <t>0.3403932900490736</t>
+  </si>
+  <si>
+    <t>0.2062362343099359</t>
+  </si>
+  <si>
+    <t>0.2742703179893712</t>
+  </si>
+  <si>
+    <t>0.30828169774897834</t>
+  </si>
+  <si>
+    <t>0.21329134365677277</t>
+  </si>
+  <si>
+    <t>0.22986687839080047</t>
+  </si>
+  <si>
+    <t>0.051674068762396934</t>
+  </si>
+  <si>
+    <t>0.14634640649515626</t>
+  </si>
+  <si>
+    <t>0.22266177262744336</t>
+  </si>
+  <si>
+    <t>0.22704997909865257</t>
+  </si>
+  <si>
+    <t>0.31321559546470973</t>
+  </si>
+  <si>
+    <t>0.2594445426223562</t>
+  </si>
+  <si>
+    <t>0.23067098850877737</t>
+  </si>
+  <si>
+    <t>0.2634679942150145</t>
+  </si>
+  <si>
+    <t>0.3061084973794663</t>
+  </si>
+  <si>
+    <t>0.23029147937155395</t>
+  </si>
+  <si>
+    <t>0.20067277341106027</t>
+  </si>
+  <si>
+    <t>0.24540253190266176</t>
+  </si>
+  <si>
+    <t>0.22645457236862787</t>
+  </si>
+  <si>
+    <t>0.1940824854673691</t>
+  </si>
+  <si>
+    <t>0.16807315654704713</t>
+  </si>
+  <si>
+    <t>0.25745881670209564</t>
+  </si>
+  <si>
+    <t>0.17047901803115684</t>
+  </si>
+  <si>
+    <t>0.1905599674677255</t>
+  </si>
+  <si>
+    <t>0.2653406644952972</t>
+  </si>
+  <si>
+    <t>0.2465947650090148</t>
   </si>
 </sst>
 </file>
@@ -1142,15 +1223,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="42.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,837 +1261,918 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>213</v>
+      </c>
+      <c r="K2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>214</v>
+      </c>
+      <c r="K3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>215</v>
+      </c>
+      <c r="K4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>216</v>
+      </c>
+      <c r="K5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>217</v>
+      </c>
+      <c r="K6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>218</v>
+      </c>
+      <c r="K7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>219</v>
+      </c>
+      <c r="K8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>220</v>
+      </c>
+      <c r="K9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>221</v>
+      </c>
+      <c r="K10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>222</v>
+      </c>
+      <c r="K11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>223</v>
+      </c>
+      <c r="K12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>224</v>
+      </c>
+      <c r="K13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>225</v>
+      </c>
+      <c r="K14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>226</v>
+      </c>
+      <c r="K15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>227</v>
+      </c>
+      <c r="K16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>228</v>
+      </c>
+      <c r="K17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>229</v>
+      </c>
+      <c r="K18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>230</v>
+      </c>
+      <c r="K19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>231</v>
+      </c>
+      <c r="K20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>232</v>
+      </c>
+      <c r="K21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>233</v>
+      </c>
+      <c r="K22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>234</v>
+      </c>
+      <c r="K23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/summary/summary.xlsx
+++ b/data/summary/summary.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/summary/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5DFDA0-CD7F-0F48-ABE9-85385AC4B131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27080" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -439,7 +433,7 @@
     <t>2.474872159060245e-16</t>
   </si>
   <si>
-    <t>8.673617379884035e-17</t>
+    <t>9.71445146547012e-17</t>
   </si>
   <si>
     <t>1.006139616066548e-16</t>
@@ -463,7 +457,7 @@
     <t>1.087093378278799e-16</t>
   </si>
   <si>
-    <t>5.681219383824043e-17</t>
+    <t>5.735429492448318e-17</t>
   </si>
   <si>
     <t>1.017704439239727e-16</t>
@@ -514,13 +508,13 @@
     <t>-3.099372610411895e-16</t>
   </si>
   <si>
-    <t>-9.020562075079397e-17</t>
+    <t>-1.179611963664229e-16</t>
   </si>
   <si>
     <t>-7.719519468096792e-17</t>
   </si>
   <si>
-    <t>-1.387778780781446e-17</t>
+    <t>-6.938893903907228e-17</t>
   </si>
   <si>
     <t>-1.341519488088731e-16</t>
@@ -583,249 +577,249 @@
     <t>-1.665334536937735e-16</t>
   </si>
   <si>
-    <t>2.0615329879688662e-17</t>
-  </si>
-  <si>
-    <t>-2.170330592485575e-18</t>
-  </si>
-  <si>
-    <t>1.2390881971262912e-18</t>
-  </si>
-  <si>
-    <t>2.883977778811442e-17</t>
-  </si>
-  <si>
-    <t>-2.478176394252584e-19</t>
-  </si>
-  <si>
-    <t>-1.2982080914989843e-18</t>
-  </si>
-  <si>
-    <t>-3.7450504355705564e-17</t>
-  </si>
-  <si>
-    <t>-3.2729629890058876e-18</t>
-  </si>
-  <si>
-    <t>3.1965916196766503e-18</t>
-  </si>
-  <si>
-    <t>-1.9076289204777627e-18</t>
-  </si>
-  <si>
-    <t>2.17808472151097e-20</t>
-  </si>
-  <si>
-    <t>1.0485049931136367e-18</t>
-  </si>
-  <si>
-    <t>3.6917083973131426e-17</t>
-  </si>
-  <si>
-    <t>-2.157420597471973e-18</t>
-  </si>
-  <si>
-    <t>-3.6831896659578994e-17</t>
-  </si>
-  <si>
-    <t>9.705381015922531e-18</t>
-  </si>
-  <si>
-    <t>6.958956958815128e-20</t>
-  </si>
-  <si>
-    <t>-5.697659573629052e-17</t>
-  </si>
-  <si>
-    <t>6.390457985808531e-18</t>
-  </si>
-  <si>
-    <t>-1.701533071235768e-17</t>
-  </si>
-  <si>
-    <t>1.2516334589587155e-17</t>
-  </si>
-  <si>
-    <t>-2.106449935114696e-18</t>
-  </si>
-  <si>
-    <t>6.692947092153987e-18</t>
-  </si>
-  <si>
-    <t>-1.153643372903806e-17</t>
-  </si>
-  <si>
-    <t>-2.5091535991807426e-18</t>
-  </si>
-  <si>
-    <t>-4.1137728144592856e-17</t>
-  </si>
-  <si>
-    <t>7.336816274065397e-17</t>
-  </si>
-  <si>
-    <t>1.149611250377791e-16</t>
-  </si>
-  <si>
-    <t>4.85298822567382e-17</t>
-  </si>
-  <si>
-    <t>5.481530857566176e-17</t>
-  </si>
-  <si>
-    <t>4.440018012768488e-18</t>
-  </si>
-  <si>
-    <t>6.911761485096476e-17</t>
-  </si>
-  <si>
-    <t>9.791102449677078e-16</t>
-  </si>
-  <si>
-    <t>5.00971212691398e-17</t>
-  </si>
-  <si>
-    <t>4.738081011267748e-17</t>
-  </si>
-  <si>
-    <t>5.25158571949968e-17</t>
-  </si>
-  <si>
-    <t>3.5554971342496066e-17</t>
-  </si>
-  <si>
-    <t>4.545651841890773e-17</t>
-  </si>
-  <si>
-    <t>6.867580879466546e-17</t>
-  </si>
-  <si>
-    <t>3.854405367584224e-17</t>
-  </si>
-  <si>
-    <t>7.274886273421988e-17</t>
-  </si>
-  <si>
-    <t>7.670247083198652e-17</t>
-  </si>
-  <si>
-    <t>1.1278821381227518e-16</t>
-  </si>
-  <si>
-    <t>1.9993969873879128e-16</t>
-  </si>
-  <si>
-    <t>1.1901295889854595e-16</t>
-  </si>
-  <si>
-    <t>1.0235055092011649e-16</t>
-  </si>
-  <si>
-    <t>1.0714846550130521e-16</t>
-  </si>
-  <si>
-    <t>7.056593684199294e-17</t>
-  </si>
-  <si>
-    <t>1.1566894304772987e-16</t>
-  </si>
-  <si>
-    <t>1.133300204494493e-16</t>
-  </si>
-  <si>
-    <t>5.845717033857227e-17</t>
-  </si>
-  <si>
-    <t>8.812138795030918e-17</t>
-  </si>
-  <si>
-    <t>0.3403932900490736</t>
-  </si>
-  <si>
-    <t>0.2062362343099359</t>
-  </si>
-  <si>
-    <t>0.2742703179893712</t>
-  </si>
-  <si>
-    <t>0.30828169774897834</t>
-  </si>
-  <si>
-    <t>0.21329134365677277</t>
-  </si>
-  <si>
-    <t>0.22986687839080047</t>
-  </si>
-  <si>
-    <t>0.051674068762396934</t>
-  </si>
-  <si>
-    <t>0.14634640649515626</t>
-  </si>
-  <si>
-    <t>0.22266177262744336</t>
-  </si>
-  <si>
-    <t>0.22704997909865257</t>
-  </si>
-  <si>
-    <t>0.31321559546470973</t>
-  </si>
-  <si>
-    <t>0.2594445426223562</t>
-  </si>
-  <si>
-    <t>0.23067098850877737</t>
-  </si>
-  <si>
-    <t>0.2634679942150145</t>
-  </si>
-  <si>
-    <t>0.3061084973794663</t>
-  </si>
-  <si>
-    <t>0.23029147937155395</t>
-  </si>
-  <si>
-    <t>0.20067277341106027</t>
-  </si>
-  <si>
-    <t>0.24540253190266176</t>
-  </si>
-  <si>
-    <t>0.22645457236862787</t>
-  </si>
-  <si>
-    <t>0.1940824854673691</t>
-  </si>
-  <si>
-    <t>0.16807315654704713</t>
-  </si>
-  <si>
-    <t>0.25745881670209564</t>
-  </si>
-  <si>
-    <t>0.17047901803115684</t>
-  </si>
-  <si>
-    <t>0.1905599674677255</t>
-  </si>
-  <si>
-    <t>0.2653406644952972</t>
-  </si>
-  <si>
-    <t>0.2465947650090148</t>
+    <t>1.4536340238509356e-17</t>
+  </si>
+  <si>
+    <t>-9.265182284870255e-19</t>
+  </si>
+  <si>
+    <t>3.4051979343248437e-18</t>
+  </si>
+  <si>
+    <t>2.4033148156762014e-17</t>
+  </si>
+  <si>
+    <t>-4.04768811061255e-18</t>
+  </si>
+  <si>
+    <t>-2.1367665711386815e-19</t>
+  </si>
+  <si>
+    <t>2.8735791784497015e-18</t>
+  </si>
+  <si>
+    <t>-3.005364372432867e-18</t>
+  </si>
+  <si>
+    <t>4.069423643307849e-18</t>
+  </si>
+  <si>
+    <t>-1.8983290101529263e-18</t>
+  </si>
+  <si>
+    <t>6.92170227223703e-18</t>
+  </si>
+  <si>
+    <t>1.1831871914550464e-18</t>
+  </si>
+  <si>
+    <t>3.0687940935842024e-17</t>
+  </si>
+  <si>
+    <t>-2.1000606693058588e-18</t>
+  </si>
+  <si>
+    <t>-2.86470307352281e-17</t>
+  </si>
+  <si>
+    <t>1.123376921625402e-17</t>
+  </si>
+  <si>
+    <t>-2.8271233031310203e-18</t>
+  </si>
+  <si>
+    <t>-5.398491720815776e-17</t>
+  </si>
+  <si>
+    <t>6.420313456529308e-18</t>
+  </si>
+  <si>
+    <t>-1.6077639216319052e-17</t>
+  </si>
+  <si>
+    <t>1.2078915123852518e-17</t>
+  </si>
+  <si>
+    <t>-9.73372617075875e-18</t>
+  </si>
+  <si>
+    <t>5.0240383013267886e-18</t>
+  </si>
+  <si>
+    <t>-1.1525426503307944e-17</t>
+  </si>
+  <si>
+    <t>-2.2085599809889936e-18</t>
+  </si>
+  <si>
+    <t>-2.994004221500712e-17</t>
+  </si>
+  <si>
+    <t>6.955149978429623e-17</t>
+  </si>
+  <si>
+    <t>1.128382069806491e-16</t>
+  </si>
+  <si>
+    <t>5.789406928771223e-17</t>
+  </si>
+  <si>
+    <t>4.95229378484802e-17</t>
+  </si>
+  <si>
+    <t>1.632443510633924e-17</t>
+  </si>
+  <si>
+    <t>6.877623732883437e-17</t>
+  </si>
+  <si>
+    <t>1.0503855952049763e-15</t>
+  </si>
+  <si>
+    <t>4.9490305997717147e-17</t>
+  </si>
+  <si>
+    <t>4.654309318698814e-17</t>
+  </si>
+  <si>
+    <t>5.169079877678032e-17</t>
+  </si>
+  <si>
+    <t>3.5286240803344516e-17</t>
+  </si>
+  <si>
+    <t>4.507802533421588e-17</t>
+  </si>
+  <si>
+    <t>6.210145228370588e-17</t>
+  </si>
+  <si>
+    <t>3.7832322617375345e-17</t>
+  </si>
+  <si>
+    <t>6.596044955977111e-17</t>
+  </si>
+  <si>
+    <t>7.631314405505938e-17</t>
+  </si>
+  <si>
+    <t>1.1263454563329659e-16</t>
+  </si>
+  <si>
+    <t>1.961615371560519e-16</t>
+  </si>
+  <si>
+    <t>1.1583416072701452e-16</t>
+  </si>
+  <si>
+    <t>1.0154558202708016e-16</t>
+  </si>
+  <si>
+    <t>1.0499522712204066e-16</t>
+  </si>
+  <si>
+    <t>6.661111989600624e-17</t>
+  </si>
+  <si>
+    <t>1.1356664092924107e-16</t>
+  </si>
+  <si>
+    <t>1.1098160901425095e-16</t>
+  </si>
+  <si>
+    <t>5.1566091665115076e-17</t>
+  </si>
+  <si>
+    <t>9.144249192873183e-17</t>
+  </si>
+  <si>
+    <t>0.32268579387916946</t>
+  </si>
+  <si>
+    <t>0.20242779362438088</t>
+  </si>
+  <si>
+    <t>0.26914240915726706</t>
+  </si>
+  <si>
+    <t>0.27851736593571297</t>
+  </si>
+  <si>
+    <t>0.2138726395983804</t>
+  </si>
+  <si>
+    <t>0.22873154717987684</t>
+  </si>
+  <si>
+    <t>0.055435736427661746</t>
+  </si>
+  <si>
+    <t>0.14457374507012158</t>
+  </si>
+  <si>
+    <t>0.21872499874809398</t>
+  </si>
+  <si>
+    <t>0.22348287562520747</t>
+  </si>
+  <si>
+    <t>0.30937084288145605</t>
+  </si>
+  <si>
+    <t>0.2572842811536125</t>
+  </si>
+  <si>
+    <t>0.20858878311784557</t>
+  </si>
+  <si>
+    <t>0.2586029544355496</t>
+  </si>
+  <si>
+    <t>0.2775446012810049</t>
+  </si>
+  <si>
+    <t>0.22912256475322426</t>
+  </si>
+  <si>
+    <t>0.2003993670096433</t>
+  </si>
+  <si>
+    <t>0.24076528165076003</t>
+  </si>
+  <si>
+    <t>0.22040604297113614</t>
+  </si>
+  <si>
+    <t>0.19255606121190666</t>
+  </si>
+  <si>
+    <t>0.16469558534704862</t>
+  </si>
+  <si>
+    <t>0.2430297233356031</t>
+  </si>
+  <si>
+    <t>0.16738053375939424</t>
+  </si>
+  <si>
+    <t>0.18661120609878318</t>
+  </si>
+  <si>
+    <t>0.23406163775290972</t>
+  </si>
+  <si>
+    <t>0.2558883868433809</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -833,15 +827,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -887,23 +874,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -945,7 +924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,27 +956,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1029,24 +990,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1222,16 +1165,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="42.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -2176,7 +2115,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>